--- a/inst/extdata/field_weather_data.xlsx
+++ b/inst/extdata/field_weather_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u8012097\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CC6603-7211-4834-9792-1AE230C56D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92E50F0-3BAA-416E-B2FF-65F7E6B5A536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="648">
   <si>
     <t>2020-06-27T00:00:00</t>
   </si>
@@ -1908,9 +1908,6 @@
     <t xml:space="preserve"> W</t>
   </si>
   <si>
-    <t xml:space="preserve"> ?</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -1920,9 +1917,6 @@
     <t>min_humidity</t>
   </si>
   <si>
-    <t>avg_wind_speed</t>
-  </si>
-  <si>
     <t>avg_wind_direction</t>
   </si>
   <si>
@@ -1941,9 +1935,6 @@
     <t xml:space="preserve"> max_temp </t>
   </si>
   <si>
-    <t xml:space="preserve"> avg_wind (km/h)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> max_ gust (km/h)</t>
   </si>
   <si>
@@ -1975,6 +1966,15 @@
   </si>
   <si>
     <t>max_soil_temp</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>avg_wind_speed (km/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avg_wind_speed (km/h)</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +2022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2030,6 +2030,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2373,7 +2376,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2396,49 +2399,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2477,6 +2480,12 @@
       </c>
       <c r="L2">
         <v>0</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>645</v>
       </c>
       <c r="O2">
         <v>98</v>
@@ -2519,6 +2528,12 @@
       <c r="L3">
         <v>0</v>
       </c>
+      <c r="M3" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O3">
         <v>105</v>
       </c>
@@ -2560,6 +2575,12 @@
       <c r="L4">
         <v>0</v>
       </c>
+      <c r="M4" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O4">
         <v>112</v>
       </c>
@@ -2601,6 +2622,12 @@
       <c r="L5">
         <v>0</v>
       </c>
+      <c r="M5" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O5">
         <v>104</v>
       </c>
@@ -2642,6 +2669,12 @@
       <c r="L6">
         <v>0</v>
       </c>
+      <c r="M6" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O6">
         <v>76</v>
       </c>
@@ -2683,6 +2716,12 @@
       <c r="L7">
         <v>0</v>
       </c>
+      <c r="M7" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O7">
         <v>107</v>
       </c>
@@ -2724,6 +2763,12 @@
       <c r="L8">
         <v>4.4000000000000004</v>
       </c>
+      <c r="M8" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O8">
         <v>104</v>
       </c>
@@ -2765,6 +2810,12 @@
       <c r="L9">
         <v>0</v>
       </c>
+      <c r="M9" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O9">
         <v>117</v>
       </c>
@@ -2806,6 +2857,12 @@
       <c r="L10">
         <v>0</v>
       </c>
+      <c r="M10" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O10">
         <v>114</v>
       </c>
@@ -2847,6 +2904,12 @@
       <c r="L11">
         <v>0</v>
       </c>
+      <c r="M11" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O11">
         <v>118</v>
       </c>
@@ -2888,6 +2951,12 @@
       <c r="L12">
         <v>0</v>
       </c>
+      <c r="M12" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O12">
         <v>118</v>
       </c>
@@ -2929,6 +2998,12 @@
       <c r="L13">
         <v>0</v>
       </c>
+      <c r="M13" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O13">
         <v>120</v>
       </c>
@@ -2970,6 +3045,12 @@
       <c r="L14">
         <v>2.2000000000000002</v>
       </c>
+      <c r="M14" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O14">
         <v>65</v>
       </c>
@@ -3011,6 +3092,12 @@
       <c r="L15">
         <v>0</v>
       </c>
+      <c r="M15" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O15">
         <v>67</v>
       </c>
@@ -3052,6 +3139,12 @@
       <c r="L16">
         <v>3</v>
       </c>
+      <c r="M16" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O16">
         <v>93</v>
       </c>
@@ -3093,6 +3186,12 @@
       <c r="L17">
         <v>13.2</v>
       </c>
+      <c r="M17" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O17">
         <v>47</v>
       </c>
@@ -3134,6 +3233,12 @@
       <c r="L18">
         <v>0</v>
       </c>
+      <c r="M18" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O18">
         <v>91</v>
       </c>
@@ -3175,6 +3280,12 @@
       <c r="L19">
         <v>0</v>
       </c>
+      <c r="M19" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O19">
         <v>91</v>
       </c>
@@ -3216,6 +3327,12 @@
       <c r="L20">
         <v>0</v>
       </c>
+      <c r="M20" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O20">
         <v>104</v>
       </c>
@@ -3257,6 +3374,12 @@
       <c r="L21">
         <v>0</v>
       </c>
+      <c r="M21" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O21">
         <v>113</v>
       </c>
@@ -3298,6 +3421,12 @@
       <c r="L22">
         <v>0</v>
       </c>
+      <c r="M22" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O22">
         <v>113</v>
       </c>
@@ -3339,6 +3468,12 @@
       <c r="L23">
         <v>0</v>
       </c>
+      <c r="M23" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O23">
         <v>113</v>
       </c>
@@ -3380,6 +3515,12 @@
       <c r="L24">
         <v>0</v>
       </c>
+      <c r="M24" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O24">
         <v>113</v>
       </c>
@@ -3421,6 +3562,12 @@
       <c r="L25">
         <v>0</v>
       </c>
+      <c r="M25" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O25">
         <v>117</v>
       </c>
@@ -3462,6 +3609,12 @@
       <c r="L26">
         <v>0</v>
       </c>
+      <c r="M26" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O26">
         <v>90</v>
       </c>
@@ -3503,6 +3656,12 @@
       <c r="L27">
         <v>0</v>
       </c>
+      <c r="M27" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O27">
         <v>52</v>
       </c>
@@ -3544,6 +3703,12 @@
       <c r="L28">
         <v>0</v>
       </c>
+      <c r="M28" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O28">
         <v>64</v>
       </c>
@@ -3585,6 +3750,12 @@
       <c r="L29">
         <v>0</v>
       </c>
+      <c r="M29" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O29">
         <v>85</v>
       </c>
@@ -3626,6 +3797,12 @@
       <c r="L30">
         <v>10.6</v>
       </c>
+      <c r="M30" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O30">
         <v>84</v>
       </c>
@@ -3667,6 +3844,12 @@
       <c r="L31">
         <v>17</v>
       </c>
+      <c r="M31" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O31">
         <v>55</v>
       </c>
@@ -3708,6 +3891,12 @@
       <c r="L32">
         <v>0</v>
       </c>
+      <c r="M32" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O32">
         <v>77</v>
       </c>
@@ -3749,6 +3938,12 @@
       <c r="L33">
         <v>0</v>
       </c>
+      <c r="M33" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O33">
         <v>111</v>
       </c>
@@ -3790,6 +3985,12 @@
       <c r="L34">
         <v>0</v>
       </c>
+      <c r="M34" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O34">
         <v>96</v>
       </c>
@@ -3831,6 +4032,12 @@
       <c r="L35">
         <v>0</v>
       </c>
+      <c r="M35" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O35">
         <v>105</v>
       </c>
@@ -3872,6 +4079,12 @@
       <c r="L36">
         <v>0</v>
       </c>
+      <c r="M36" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O36">
         <v>0</v>
       </c>
@@ -3913,6 +4126,12 @@
       <c r="L37">
         <v>0</v>
       </c>
+      <c r="M37" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O37">
         <v>149</v>
       </c>
@@ -3954,6 +4173,12 @@
       <c r="L38">
         <v>0</v>
       </c>
+      <c r="M38" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O38">
         <v>112</v>
       </c>
@@ -3995,6 +4220,12 @@
       <c r="L39">
         <v>0</v>
       </c>
+      <c r="M39" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O39">
         <v>89</v>
       </c>
@@ -4036,6 +4267,12 @@
       <c r="L40">
         <v>0</v>
       </c>
+      <c r="M40" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O40">
         <v>85</v>
       </c>
@@ -4077,6 +4314,12 @@
       <c r="L41">
         <v>0</v>
       </c>
+      <c r="M41" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O41">
         <v>114</v>
       </c>
@@ -4118,6 +4361,12 @@
       <c r="L42">
         <v>0</v>
       </c>
+      <c r="M42" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O42">
         <v>76</v>
       </c>
@@ -4159,6 +4408,12 @@
       <c r="L43">
         <v>16.600000000000001</v>
       </c>
+      <c r="M43" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O43">
         <v>28</v>
       </c>
@@ -4200,6 +4455,12 @@
       <c r="L44">
         <v>0.4</v>
       </c>
+      <c r="M44" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O44">
         <v>107</v>
       </c>
@@ -4241,6 +4502,12 @@
       <c r="L45">
         <v>0</v>
       </c>
+      <c r="M45" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O45">
         <v>119</v>
       </c>
@@ -4282,6 +4549,12 @@
       <c r="L46">
         <v>0</v>
       </c>
+      <c r="M46" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O46">
         <v>75</v>
       </c>
@@ -4323,6 +4596,12 @@
       <c r="L47">
         <v>0</v>
       </c>
+      <c r="M47" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O47">
         <v>128</v>
       </c>
@@ -4364,6 +4643,12 @@
       <c r="L48">
         <v>0</v>
       </c>
+      <c r="M48" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O48">
         <v>118</v>
       </c>
@@ -4405,6 +4690,12 @@
       <c r="L49">
         <v>0</v>
       </c>
+      <c r="M49" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O49">
         <v>135</v>
       </c>
@@ -4446,6 +4737,12 @@
       <c r="L50">
         <v>3.8</v>
       </c>
+      <c r="M50" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O50">
         <v>102</v>
       </c>
@@ -4487,6 +4784,12 @@
       <c r="L51">
         <v>22</v>
       </c>
+      <c r="M51" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O51">
         <v>64</v>
       </c>
@@ -4528,6 +4831,12 @@
       <c r="L52">
         <v>0</v>
       </c>
+      <c r="M52" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O52">
         <v>74</v>
       </c>
@@ -4569,6 +4878,12 @@
       <c r="L53">
         <v>0</v>
       </c>
+      <c r="M53" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O53">
         <v>95</v>
       </c>
@@ -4610,6 +4925,12 @@
       <c r="L54">
         <v>0</v>
       </c>
+      <c r="M54" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O54">
         <v>82</v>
       </c>
@@ -4651,6 +4972,12 @@
       <c r="L55">
         <v>0</v>
       </c>
+      <c r="M55" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O55">
         <v>100</v>
       </c>
@@ -4692,6 +5019,12 @@
       <c r="L56">
         <v>0</v>
       </c>
+      <c r="M56" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O56">
         <v>92</v>
       </c>
@@ -4733,6 +5066,12 @@
       <c r="L57">
         <v>0</v>
       </c>
+      <c r="M57" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O57">
         <v>99</v>
       </c>
@@ -4774,6 +5113,12 @@
       <c r="L58">
         <v>0</v>
       </c>
+      <c r="M58" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O58">
         <v>0</v>
       </c>
@@ -4815,6 +5160,12 @@
       <c r="L59">
         <v>0</v>
       </c>
+      <c r="M59" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O59">
         <v>43</v>
       </c>
@@ -4856,6 +5207,12 @@
       <c r="L60">
         <v>0</v>
       </c>
+      <c r="M60" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O60">
         <v>99</v>
       </c>
@@ -4897,6 +5254,12 @@
       <c r="L61">
         <v>0</v>
       </c>
+      <c r="M61" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O61">
         <v>101</v>
       </c>
@@ -4938,6 +5301,12 @@
       <c r="L62">
         <v>0</v>
       </c>
+      <c r="M62" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O62">
         <v>99</v>
       </c>
@@ -4979,6 +5348,12 @@
       <c r="L63">
         <v>0</v>
       </c>
+      <c r="M63" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O63">
         <v>89</v>
       </c>
@@ -5020,6 +5395,12 @@
       <c r="L64">
         <v>0</v>
       </c>
+      <c r="M64" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O64">
         <v>115</v>
       </c>
@@ -5061,6 +5442,12 @@
       <c r="L65">
         <v>0</v>
       </c>
+      <c r="M65" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O65">
         <v>114</v>
       </c>
@@ -5102,6 +5489,12 @@
       <c r="L66">
         <v>0</v>
       </c>
+      <c r="M66" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O66">
         <v>106</v>
       </c>
@@ -5143,6 +5536,12 @@
       <c r="L67">
         <v>0</v>
       </c>
+      <c r="M67" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O67">
         <v>115</v>
       </c>
@@ -5184,6 +5583,12 @@
       <c r="L68">
         <v>0</v>
       </c>
+      <c r="M68" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O68">
         <v>110</v>
       </c>
@@ -5225,6 +5630,12 @@
       <c r="L69">
         <v>0</v>
       </c>
+      <c r="M69" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O69">
         <v>82</v>
       </c>
@@ -5266,6 +5677,12 @@
       <c r="L70">
         <v>0</v>
       </c>
+      <c r="M70" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O70">
         <v>84</v>
       </c>
@@ -5307,6 +5724,12 @@
       <c r="L71">
         <v>0</v>
       </c>
+      <c r="M71" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O71">
         <v>91</v>
       </c>
@@ -5348,6 +5771,12 @@
       <c r="L72">
         <v>0</v>
       </c>
+      <c r="M72" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O72">
         <v>103</v>
       </c>
@@ -5389,6 +5818,12 @@
       <c r="L73">
         <v>0</v>
       </c>
+      <c r="M73" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O73">
         <v>109</v>
       </c>
@@ -5430,6 +5865,12 @@
       <c r="L74">
         <v>0</v>
       </c>
+      <c r="M74" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O74">
         <v>110</v>
       </c>
@@ -5471,6 +5912,12 @@
       <c r="L75">
         <v>0</v>
       </c>
+      <c r="M75" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O75">
         <v>112</v>
       </c>
@@ -5512,6 +5959,12 @@
       <c r="L76">
         <v>0</v>
       </c>
+      <c r="M76" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O76">
         <v>120</v>
       </c>
@@ -5553,6 +6006,12 @@
       <c r="L77">
         <v>0</v>
       </c>
+      <c r="M77" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O77">
         <v>80</v>
       </c>
@@ -5594,6 +6053,12 @@
       <c r="L78">
         <v>0</v>
       </c>
+      <c r="M78" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O78">
         <v>100</v>
       </c>
@@ -5635,6 +6100,12 @@
       <c r="L79">
         <v>0</v>
       </c>
+      <c r="M79" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O79">
         <v>140</v>
       </c>
@@ -5676,6 +6147,12 @@
       <c r="L80">
         <v>0</v>
       </c>
+      <c r="M80" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="O80">
         <v>143</v>
       </c>
@@ -5716,6 +6193,12 @@
       </c>
       <c r="L81">
         <v>0</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>645</v>
       </c>
       <c r="O81">
         <v>148</v>
@@ -8174,9 +8657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF93BFBF-B64E-4061-8E15-6DBDA65202D6}">
   <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8185,37 +8666,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" t="s">
         <v>634</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>635</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>636</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>637</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>638</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>639</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>640</v>
-      </c>
-      <c r="I1" t="s">
-        <v>641</v>
-      </c>
-      <c r="J1" t="s">
-        <v>642</v>
-      </c>
-      <c r="K1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -12892,8 +13373,8 @@
       <c r="F135" t="s">
         <v>613</v>
       </c>
-      <c r="G135" t="s">
-        <v>625</v>
+      <c r="G135" s="4" t="s">
+        <v>645</v>
       </c>
       <c r="H135">
         <v>7.36</v>
